--- a/5/1/1/2/Billetes y monedas en circulación 1994 a 2021 - Trimestral.xlsx
+++ b/5/1/1/2/Billetes y monedas en circulación 1994 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Serie</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -779,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z111"/>
+  <dimension ref="A1:Z112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7742,6 +7745,65 @@
         <v>72</v>
       </c>
     </row>
+    <row r="112" spans="1:26">
+      <c r="A112" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112">
+        <v>18008732</v>
+      </c>
+      <c r="C112">
+        <v>9463850</v>
+      </c>
+      <c r="D112">
+        <v>7120688</v>
+      </c>
+      <c r="E112">
+        <v>817393</v>
+      </c>
+      <c r="F112">
+        <v>249315</v>
+      </c>
+      <c r="G112">
+        <v>352529</v>
+      </c>
+      <c r="H112">
+        <v>4706</v>
+      </c>
+      <c r="L112">
+        <v>251</v>
+      </c>
+      <c r="M112">
+        <v>533661</v>
+      </c>
+      <c r="N112">
+        <v>349</v>
+      </c>
+      <c r="O112">
+        <v>99</v>
+      </c>
+      <c r="P112">
+        <v>254690</v>
+      </c>
+      <c r="Q112">
+        <v>167521</v>
+      </c>
+      <c r="R112">
+        <v>32671</v>
+      </c>
+      <c r="S112">
+        <v>62856</v>
+      </c>
+      <c r="T112">
+        <v>10712</v>
+      </c>
+      <c r="U112">
+        <v>4691</v>
+      </c>
+      <c r="Z112">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
